--- a/test_data/登录接口_test.xlsx
+++ b/test_data/登录接口_test.xlsx
@@ -7,34 +7,31 @@
     <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>用例编号</t>
+    <t>是否执行</t>
   </si>
   <si>
-    <t>执行目的</t>
+    <t>Y</t>
   </si>
   <si>
-    <t>请求接口</t>
+    <t>数据库名称</t>
   </si>
   <si>
-    <t>请求方法</t>
+    <t>mysql</t>
   </si>
   <si>
-    <t>前置描述</t>
+    <t>数据库连接</t>
   </si>
   <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>执行时间</t>
+    <t>ssh</t>
   </si>
 </sst>
 </file>
@@ -42,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,7 +56,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,6 +98,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -78,13 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -94,45 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,53 +153,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,55 +206,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,73 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,49 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,45 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,6 +424,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,22 +468,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,148 +502,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,35 +999,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/登录接口_test.xlsx
+++ b/test_data/登录接口_test.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="57">
   <si>
     <t>是否执行</t>
   </si>
@@ -32,6 +34,159 @@
   </si>
   <si>
     <t>ssh</t>
+  </si>
+  <si>
+    <t>用力编号</t>
+  </si>
+  <si>
+    <t>测试目的</t>
+  </si>
+  <si>
+    <t>测试接口</t>
+  </si>
+  <si>
+    <t>请求方法</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>是否通过</t>
+  </si>
+  <si>
+    <t>qa_1_value_1</t>
+  </si>
+  <si>
+    <t>用户登录——01</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>request_json_01</t>
+  </si>
+  <si>
+    <t>qa_1_value_2</t>
+  </si>
+  <si>
+    <t>用户登录——02</t>
+  </si>
+  <si>
+    <t>request_json_02</t>
+  </si>
+  <si>
+    <t>qa_1_value_3</t>
+  </si>
+  <si>
+    <t>用户登录——03</t>
+  </si>
+  <si>
+    <t>request_json_03</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>qa_1_value_4</t>
+  </si>
+  <si>
+    <t>用户登录——04</t>
+  </si>
+  <si>
+    <t>request_json_04</t>
+  </si>
+  <si>
+    <t>qa_1_value_5</t>
+  </si>
+  <si>
+    <t>用户登录——05</t>
+  </si>
+  <si>
+    <t>request_json_05</t>
+  </si>
+  <si>
+    <t>qa_1_value_6</t>
+  </si>
+  <si>
+    <t>用户登录——06</t>
+  </si>
+  <si>
+    <t>request_json_06</t>
+  </si>
+  <si>
+    <t>qa_1_value_7</t>
+  </si>
+  <si>
+    <t>用户登录——07</t>
+  </si>
+  <si>
+    <t>request_json_07</t>
+  </si>
+  <si>
+    <t>qa_1_value_8</t>
+  </si>
+  <si>
+    <t>用户登录——08</t>
+  </si>
+  <si>
+    <t>request_json_08</t>
+  </si>
+  <si>
+    <t>qa_1_value_9</t>
+  </si>
+  <si>
+    <t>用户登录——09</t>
+  </si>
+  <si>
+    <t>request_json_09</t>
+  </si>
+  <si>
+    <t>qa_1_value_10</t>
+  </si>
+  <si>
+    <t>用户登录——10</t>
+  </si>
+  <si>
+    <t>request_json_10</t>
+  </si>
+  <si>
+    <t>qa_1_value_11</t>
+  </si>
+  <si>
+    <t>用户登录——11</t>
+  </si>
+  <si>
+    <t>request_json_11</t>
+  </si>
+  <si>
+    <t>qa_1_value_12</t>
+  </si>
+  <si>
+    <t>用户登录——12</t>
+  </si>
+  <si>
+    <t>request_json_12</t>
+  </si>
+  <si>
+    <t>qa_1_value_13</t>
+  </si>
+  <si>
+    <t>用户登录——13</t>
+  </si>
+  <si>
+    <t>request_json_13</t>
+  </si>
+  <si>
+    <t>qa_1_value_14</t>
+  </si>
+  <si>
+    <t>用户登录——14</t>
+  </si>
+  <si>
+    <t>request_json_14</t>
   </si>
 </sst>
 </file>
@@ -54,14 +209,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +245,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -114,8 +284,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,9 +316,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,21 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -168,30 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,120 +361,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,66 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,6 +599,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,32 +642,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,145 +660,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1156,13 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1039,4 +1194,660 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>